--- a/design/Excel/excel/人物卡牌表_characterCards.xlsx
+++ b/design/Excel/excel/人物卡牌表_characterCards.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cfg_characterCards" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -356,7 +356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/design/Excel/excel/人物卡牌表_characterCards.xlsx
+++ b/design/Excel/excel/人物卡牌表_characterCards.xlsx
@@ -15,9 +15,498 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+引用模型表</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">，搬山
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">，卸岭
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">，
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">，绿
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">，蓝
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+卡牌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>级出生时的属性</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+资质</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>等级</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>等级属性
+属性类型</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>#</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>资质</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>|</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>属性类型</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>#</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>资质</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>卡牌1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌2</t>
+  </si>
+  <si>
+    <t>卡牌3</t>
+  </si>
+  <si>
+    <t>cardType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌阵营</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌品质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性资质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvlLimit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,10 +517,45 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,9 +580,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,17 +881,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25">
+      <c r="E12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -376,7 +1032,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -390,7 +1046,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/design/Excel/excel/人物卡牌表_characterCards.xlsx
+++ b/design/Excel/excel/人物卡牌表_characterCards.xlsx
@@ -402,12 +402,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+卡牌自身的技能组</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -500,13 +526,25 @@
   <si>
     <t>lvlLimit</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>skill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +595,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -580,11 +624,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,15 +931,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="11" max="11" width="41.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
+    <row r="1" spans="1:11" ht="14.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -915,15 +968,23 @@
       <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="14.25">
+    <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -951,8 +1012,14 @@
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25">
+    <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -980,8 +1047,14 @@
       <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:11" ht="14.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -991,7 +1064,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="14.25">
+    <row r="6" spans="1:11" ht="14.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1002,7 +1075,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25">
+    <row r="7" spans="1:11" ht="14.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1013,7 +1086,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25">
+    <row r="12" spans="1:11" ht="14.25">
       <c r="E12" s="1"/>
     </row>
   </sheetData>
